--- a/data/trans_camb/P6906-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P6906-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P6906-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P6906-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,41</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,61</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,6</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,89</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,12</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,65</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,4</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,09; 26,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,21; 25,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,47; 12,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,67; 24,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,38; 43,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,77; 19,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,25; 20,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,41; 23,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,3; 12,92</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>94,68%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>79,75%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,88%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,04%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>102,49%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,39%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>81,37%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>85,66%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,3%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,3; 307,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,18; 311,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,86; 153,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,08; 423,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,09; 795,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,34; 315,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,01; 246,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,91; 257,6</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,72; 142,59</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,44</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,97</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,47</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,05</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,66</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,31</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,18; 10,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,33; 3,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,4; 0,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,39; 18,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,71; 19,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,19; 9,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,6; 10,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,97; 7,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,9; 2,22</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,72%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,38%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,41%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,86%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,41%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,18%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,93%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,3; 51,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,65; 16,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,15; 3,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,61; 100,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,45; 108,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,81; 54,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,98; 51,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,86; 35,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,27; 11,54</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,05</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,6</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,24</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,84</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,52</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,03</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,24</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,55</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,48; 17,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,02; 25,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,33; 11,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,41; 26,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,9; 28,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,48; 26,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,12; 17,51</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,44; 20,86</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,28; 14,22</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,95%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,59%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,45%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,14%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,2%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,78%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,06%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,7%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,37%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,56; 63,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,46; 92,54</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,55; 44,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,18; 164,49</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,38; 195,38</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,54; 179,9</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,89; 72,66</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,39; 90,92</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,58; 59,42</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,92</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,91</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,0</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,96</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,15</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,02</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,4</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,71; 9,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,98; 7,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,58; 2,36</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,37; 15,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,18; 19,01</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,83; 11,16</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,39; 10,57</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,06; 10,18</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,08; 5,02</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,31%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,35%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,54%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,8%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,91%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,12%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,52%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,79%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,26; 48,2</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,05; 38,5</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,82; 11,87</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,94; 89,47</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,75; 106,57</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,22; 62,9</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,38; 53,07</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,35; 49,57</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,6; 24,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P6906-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P6906-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,9</t>
+          <t>4,03</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>1,89</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,47; 12,91</t>
+          <t>-11,44; 12,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-14,77; 19,72</t>
+          <t>-13,64; 21,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-7,3; 12,92</t>
+          <t>-7,12; 12,92</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-5,88%</t>
+          <t>-4,43%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>21,39%</t>
+          <t>29,75%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>11,3%</t>
+          <t>15,17%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-76,86; 153,07</t>
+          <t>-77,34; 158,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-69,34; 315,42</t>
+          <t>-64,04; 343,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-49,72; 142,59</t>
+          <t>-46,88; 153,3</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-6,97</t>
+          <t>-6,48</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-3,31</t>
+          <t>-3,97</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,4; 0,61</t>
+          <t>-13,73; 1,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,19; 9,44</t>
+          <t>-13,91; 7,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 2,22</t>
+          <t>-10,07; 1,83</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-29,38%</t>
+          <t>-27,31%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>-6,17%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-13,93%</t>
+          <t>-16,72%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-51,15; 3,84</t>
+          <t>-49,46; 7,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,81; 54,81</t>
+          <t>-48,47; 43,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-33,27; 11,54</t>
+          <t>-39,24; 9,42</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-5,6</t>
+          <t>-5,61</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>12,52</t>
+          <t>12,44</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,55</t>
+          <t>3,42</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-22,33; 11,61</t>
+          <t>-22,56; 10,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 26,25</t>
+          <t>-2,4; 26,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 14,22</t>
+          <t>-7,51; 13,91</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-16,45%</t>
+          <t>-16,47%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>55,78%</t>
+          <t>55,39%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>12,37%</t>
+          <t>11,93%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-53,55; 44,38</t>
+          <t>-53,5; 44,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-8,54; 179,9</t>
+          <t>-8,97; 178,17</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-20,58; 59,42</t>
+          <t>-20,94; 58,93</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,92</t>
+          <t>-3,54</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,96</t>
+          <t>3,55</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>-0,1</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,58; 2,36</t>
+          <t>-9,31; 2,76</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 11,16</t>
+          <t>-5,34; 10,56</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 5,02</t>
+          <t>-5,13; 4,9</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-17,35%</t>
+          <t>-15,68%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>22,91%</t>
+          <t>16,41%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>-0,43%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-37,82; 11,87</t>
+          <t>-37,51; 14,49</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-11,22; 62,9</t>
+          <t>-21,03; 56,19</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-16,6; 24,43</t>
+          <t>-21,56; 23,65</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P6906-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P6906-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,09; 26,09</t>
+          <t>-2,24; 24,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 25,22</t>
+          <t>-2,22; 24,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,44; 12,93</t>
+          <t>-10,61; 14,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 24,57</t>
+          <t>-10,29; 23,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 43,43</t>
+          <t>-5,53; 38,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,64; 21,39</t>
+          <t>-15,11; 20,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,25; 20,98</t>
+          <t>0,22; 20,63</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 23,13</t>
+          <t>0,16; 22,87</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 12,92</t>
+          <t>-6,66; 13,67</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,3; 307,93</t>
+          <t>-14,34; 299,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-19,18; 311,59</t>
+          <t>-20,55; 264,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-77,34; 158,94</t>
+          <t>-73,29; 188,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-48,08; 423,33</t>
+          <t>-59,39; 387,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-43,09; 795,68</t>
+          <t>-49,17; 507,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-64,04; 343,42</t>
+          <t>-63,63; 340,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,01; 246,08</t>
+          <t>0,49; 223,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 257,6</t>
+          <t>-2,34; 238,97</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-46,88; 153,3</t>
+          <t>-44,6; 160,59</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 10,07</t>
+          <t>-6,11; 10,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,33; 3,08</t>
+          <t>-11,5; 3,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,73; 1,29</t>
+          <t>-13,51; 1,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 18,57</t>
+          <t>-4,56; 19,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 19,62</t>
+          <t>-2,49; 19,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,91; 7,87</t>
+          <t>-13,62; 7,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 10,49</t>
+          <t>-2,94; 9,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 7,2</t>
+          <t>-6,16; 6,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-10,07; 1,83</t>
+          <t>-10,06; 2,02</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-23,3; 51,71</t>
+          <t>-23,54; 50,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-44,65; 16,33</t>
+          <t>-42,83; 16,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-49,46; 7,06</t>
+          <t>-50,4; 10,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,61; 100,01</t>
+          <t>-14,89; 106,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-13,45; 108,06</t>
+          <t>-8,73; 111,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-48,47; 43,08</t>
+          <t>-44,46; 43,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-9,98; 51,84</t>
+          <t>-10,35; 47,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-22,86; 35,46</t>
+          <t>-23,52; 27,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-39,24; 9,42</t>
+          <t>-38,65; 9,44</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-18,48; 17,8</t>
+          <t>-18,24; 17,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,02; 25,27</t>
+          <t>-8,12; 25,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-22,56; 10,9</t>
+          <t>-22,89; 9,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,41; 26,75</t>
+          <t>-7,99; 27,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 28,31</t>
+          <t>-2,5; 29,38</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 26,5</t>
+          <t>-1,15; 26,74</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 17,51</t>
+          <t>-9,42; 16,14</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 20,86</t>
+          <t>-1,4; 22,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 13,91</t>
+          <t>-7,7; 14,18</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-48,56; 63,78</t>
+          <t>-44,6; 70,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-21,46; 92,54</t>
+          <t>-22,1; 96,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-53,5; 44,03</t>
+          <t>-56,23; 38,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-33,18; 164,49</t>
+          <t>-28,24; 184,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-15,38; 195,38</t>
+          <t>-9,92; 191,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-8,97; 178,17</t>
+          <t>-5,27; 195,16</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-25,89; 72,66</t>
+          <t>-29,28; 70,38</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 90,92</t>
+          <t>-4,46; 101,72</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-20,94; 58,93</t>
+          <t>-23,74; 59,5</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 9,56</t>
+          <t>-2,49; 9,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 7,6</t>
+          <t>-4,66; 7,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,31; 2,76</t>
+          <t>-9,66; 3,09</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 15,94</t>
+          <t>-0,73; 16,64</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,18; 19,01</t>
+          <t>2,68; 19,31</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 10,56</t>
+          <t>-6,1; 11,14</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,39; 10,57</t>
+          <t>0,03; 10,09</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 10,18</t>
+          <t>-0,04; 10,02</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 4,9</t>
+          <t>-5,27; 4,46</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-11,26; 48,2</t>
+          <t>-10,61; 49,47</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-20,05; 38,5</t>
+          <t>-18,03; 36,13</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-37,51; 14,49</t>
+          <t>-39,18; 15,64</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 89,47</t>
+          <t>-2,97; 94,27</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>11,75; 106,57</t>
+          <t>10,84; 111,27</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-21,03; 56,19</t>
+          <t>-21,8; 62,0</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,38; 53,07</t>
+          <t>0,12; 49,19</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 49,57</t>
+          <t>0,01; 50,16</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-21,56; 23,65</t>
+          <t>-22,32; 21,65</t>
         </is>
       </c>
     </row>
